--- a/XING_ELE32801-Planos/Libro1.xlsx
+++ b/XING_ELE32801-Planos/Libro1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESPACIO DE TRABAJO\X328 - Armadora de cajas ST1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FJR\Desktop\FJR\Obras - eProC\REPO_GITHUB\RepoX328\XING_ELE32801-Planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="I-O nuevo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$68</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="361">
   <si>
     <t>PROGRAMA PLC</t>
   </si>
@@ -597,13 +598,526 @@
   </si>
   <si>
     <t>proteccion de torque enrutado de caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMA NUEVO </t>
+  </si>
+  <si>
+    <t>iFaseA</t>
+  </si>
+  <si>
+    <t>%I0.0</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>fase A del encoder</t>
+  </si>
+  <si>
+    <t>iFaseB</t>
+  </si>
+  <si>
+    <t>%I0.1</t>
+  </si>
+  <si>
+    <t>fase B del encoder</t>
+  </si>
+  <si>
+    <t>iSNSpush_adel</t>
+  </si>
+  <si>
+    <t>%I0.2</t>
+  </si>
+  <si>
+    <t>iFase0</t>
+  </si>
+  <si>
+    <t>%I0.3</t>
+  </si>
+  <si>
+    <t>fase 0 del encoder, detecta cuando se cumplió una vuelta</t>
+  </si>
+  <si>
+    <t>iSNScaja_acum</t>
+  </si>
+  <si>
+    <t>%I0.4</t>
+  </si>
+  <si>
+    <t>iSNSproteccion_torque</t>
+  </si>
+  <si>
+    <t>%I0.5</t>
+  </si>
+  <si>
+    <t>Sensor Protección de torque motor principal cinta</t>
+  </si>
+  <si>
+    <t>%I0.6</t>
+  </si>
+  <si>
+    <t>Tag_32</t>
+  </si>
+  <si>
+    <t>%I0.7</t>
+  </si>
+  <si>
+    <t>iSNSalp</t>
+  </si>
+  <si>
+    <t>%I1.0</t>
+  </si>
+  <si>
+    <t>Sensor área de recorrido libre del pusher</t>
+  </si>
+  <si>
+    <t>k_EXT</t>
+  </si>
+  <si>
+    <t>%I1.1</t>
+  </si>
+  <si>
+    <t>enable suction arm from EXT input</t>
+  </si>
+  <si>
+    <t>iSNSpegamento en depósito</t>
+  </si>
+  <si>
+    <t>%I1.2</t>
+  </si>
+  <si>
+    <t>Detecta pegamento en depósito</t>
+  </si>
+  <si>
+    <t>iS_cinta_salida_on</t>
+  </si>
+  <si>
+    <t>%I1.3</t>
+  </si>
+  <si>
+    <t>iSNScaja_trab</t>
+  </si>
+  <si>
+    <t>%I1.4</t>
+  </si>
+  <si>
+    <t>iSnsCajaCerrada</t>
+  </si>
+  <si>
+    <t>%I1.5</t>
+  </si>
+  <si>
+    <t>%I1.6</t>
+  </si>
+  <si>
+    <t>%I1.7</t>
+  </si>
+  <si>
+    <t>%I12.0</t>
+  </si>
+  <si>
+    <t>%I12.1</t>
+  </si>
+  <si>
+    <t>%I12.2</t>
+  </si>
+  <si>
+    <t>%I12.3</t>
+  </si>
+  <si>
+    <t>%I12.4</t>
+  </si>
+  <si>
+    <t>%I12.5</t>
+  </si>
+  <si>
+    <t>%I12.6</t>
+  </si>
+  <si>
+    <t>%I12.7</t>
+  </si>
+  <si>
+    <t>iEnable</t>
+  </si>
+  <si>
+    <t>%I32.0</t>
+  </si>
+  <si>
+    <t>iEmergencia</t>
+  </si>
+  <si>
+    <t>%I32.1</t>
+  </si>
+  <si>
+    <t>iAveria-reposicion</t>
+  </si>
+  <si>
+    <t>%I32.2</t>
+  </si>
+  <si>
+    <t>iTermicas_mev</t>
+  </si>
+  <si>
+    <t>%I32.3</t>
+  </si>
+  <si>
+    <t>iTermicas_pbs</t>
+  </si>
+  <si>
+    <t>%I32.4</t>
+  </si>
+  <si>
+    <t>iM</t>
+  </si>
+  <si>
+    <t>%I32.5</t>
+  </si>
+  <si>
+    <t>iP</t>
+  </si>
+  <si>
+    <t>%I32.6</t>
+  </si>
+  <si>
+    <t>%I32.7</t>
+  </si>
+  <si>
+    <t>iSNS_nivel_bajo_cartones</t>
+  </si>
+  <si>
+    <t>%I33.0</t>
+  </si>
+  <si>
+    <t>iK_encol_on</t>
+  </si>
+  <si>
+    <t>%I33.1</t>
+  </si>
+  <si>
+    <t>iSNSpush_atras</t>
+  </si>
+  <si>
+    <t>%I33.2</t>
+  </si>
+  <si>
+    <t>iSNS_carton en area de colado</t>
+  </si>
+  <si>
+    <t>%I33.3</t>
+  </si>
+  <si>
+    <t>iS_automat</t>
+  </si>
+  <si>
+    <t>%I33.4</t>
+  </si>
+  <si>
+    <t>iS_Probar</t>
+  </si>
+  <si>
+    <t>%I33.5</t>
+  </si>
+  <si>
+    <t>iSNS_bs_abajo</t>
+  </si>
+  <si>
+    <t>%I33.6</t>
+  </si>
+  <si>
+    <t>iSNS_bs_arriba</t>
+  </si>
+  <si>
+    <t>%I33.7</t>
+  </si>
+  <si>
+    <t>Sensor Detecta Pusher adelante</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NO SE USA</t>
+  </si>
+  <si>
+    <t>NO EXISTE MAS</t>
+  </si>
+  <si>
+    <t>NO SE USA MAS</t>
+  </si>
+  <si>
+    <t>oAlim_cart</t>
+  </si>
+  <si>
+    <t>%Q0.0</t>
+  </si>
+  <si>
+    <t>oQuick_out</t>
+  </si>
+  <si>
+    <t>%Q0.1</t>
+  </si>
+  <si>
+    <t>%Q0.2</t>
+  </si>
+  <si>
+    <t>oPacker</t>
+  </si>
+  <si>
+    <t>%Q0.3</t>
+  </si>
+  <si>
+    <t>oSep_fing</t>
+  </si>
+  <si>
+    <t>%Q0.4</t>
+  </si>
+  <si>
+    <t>%Q0.5</t>
+  </si>
+  <si>
+    <t>%Q0.6</t>
+  </si>
+  <si>
+    <t>%Q0.7</t>
+  </si>
+  <si>
+    <t>%Q1.0</t>
+  </si>
+  <si>
+    <t>%Q1.1</t>
+  </si>
+  <si>
+    <t>%Q1.2</t>
+  </si>
+  <si>
+    <t>%Q1.3</t>
+  </si>
+  <si>
+    <t>%Q1.4</t>
+  </si>
+  <si>
+    <t>%Q1.5</t>
+  </si>
+  <si>
+    <t>%Q1.6</t>
+  </si>
+  <si>
+    <t>%Q1.7</t>
+  </si>
+  <si>
+    <t>oM_cinta_principal</t>
+  </si>
+  <si>
+    <t>%Q32.0</t>
+  </si>
+  <si>
+    <t>oM_bomba</t>
+  </si>
+  <si>
+    <t>%Q32.1</t>
+  </si>
+  <si>
+    <t>oM_brazo_succión</t>
+  </si>
+  <si>
+    <t>%Q32.2</t>
+  </si>
+  <si>
+    <t>oM_pusher</t>
+  </si>
+  <si>
+    <t>%Q32.3</t>
+  </si>
+  <si>
+    <t>oM_cinta_sal</t>
+  </si>
+  <si>
+    <t>%Q32.4</t>
+  </si>
+  <si>
+    <t>oLmpR</t>
+  </si>
+  <si>
+    <t>%Q32.5</t>
+  </si>
+  <si>
+    <t>oLmpV</t>
+  </si>
+  <si>
+    <t>%Q32.6</t>
+  </si>
+  <si>
+    <t>oLinea-emergencia</t>
+  </si>
+  <si>
+    <t>%Q32.7</t>
+  </si>
+  <si>
+    <t>oVálvula_Succión</t>
+  </si>
+  <si>
+    <t>%Q33.0</t>
+  </si>
+  <si>
+    <t>oAgarra_solapas</t>
+  </si>
+  <si>
+    <t>%Q33.1</t>
+  </si>
+  <si>
+    <t>oCierra_solapa</t>
+  </si>
+  <si>
+    <t>%Q33.2</t>
+  </si>
+  <si>
+    <t>oRetB</t>
+  </si>
+  <si>
+    <t>%Q33.3</t>
+  </si>
+  <si>
+    <t>oBoquilla_Encoladora</t>
+  </si>
+  <si>
+    <t>%Q33.4</t>
+  </si>
+  <si>
+    <t>oPusher_out</t>
+  </si>
+  <si>
+    <t>%Q33.5</t>
+  </si>
+  <si>
+    <t>oPinza</t>
+  </si>
+  <si>
+    <t>%Q33.6</t>
+  </si>
+  <si>
+    <t>oRetC</t>
+  </si>
+  <si>
+    <t>%Q33.7</t>
+  </si>
+  <si>
+    <t>oRele220</t>
+  </si>
+  <si>
+    <t>oAireOk</t>
+  </si>
+  <si>
+    <t>Programar</t>
+  </si>
+  <si>
+    <t>iSel_ActivoEncolado</t>
+  </si>
+  <si>
+    <t>Cuando se pone en 1, activa salida</t>
+  </si>
+  <si>
+    <t>oEncoladoOk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con esta salida, pega el contactor K3030 cuya confirmacion me pone un 1 en %I33.1   </t>
+  </si>
+  <si>
+    <t>RELEVAR</t>
+  </si>
+  <si>
+    <t>iReserva_1</t>
+  </si>
+  <si>
+    <t>iReserva_2</t>
+  </si>
+  <si>
+    <t>iReserva_3</t>
+  </si>
+  <si>
+    <t>iReserva_4</t>
+  </si>
+  <si>
+    <t>iReserva_5</t>
+  </si>
+  <si>
+    <t>iReserva_6</t>
+  </si>
+  <si>
+    <t>iReserva_7</t>
+  </si>
+  <si>
+    <t>iReserva_8</t>
+  </si>
+  <si>
+    <t>iReserva_9</t>
+  </si>
+  <si>
+    <t>iReserva_10</t>
+  </si>
+  <si>
+    <t>iReserva_11</t>
+  </si>
+  <si>
+    <t>iReserva_12</t>
+  </si>
+  <si>
+    <t>iReserva_13</t>
+  </si>
+  <si>
+    <t>iReserva_14</t>
+  </si>
+  <si>
+    <t>oReserva_1</t>
+  </si>
+  <si>
+    <t>oReserva_2</t>
+  </si>
+  <si>
+    <t>oReserva_3</t>
+  </si>
+  <si>
+    <t>oReserva_4</t>
+  </si>
+  <si>
+    <t>oReserva_5</t>
+  </si>
+  <si>
+    <t>oReserva_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rele de 220 </t>
+  </si>
+  <si>
+    <t>Conexión de aire OK</t>
+  </si>
+  <si>
+    <t>oReserva_7</t>
+  </si>
+  <si>
+    <t>oReserva_8</t>
+  </si>
+  <si>
+    <t>oReserva_9</t>
+  </si>
+  <si>
+    <t>oReserva_10</t>
+  </si>
+  <si>
+    <t>oReserva_11</t>
+  </si>
+  <si>
+    <t>oReserva_12</t>
+  </si>
+  <si>
+    <t>oReserva_13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,16 +1125,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -643,11 +1199,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -659,6 +1323,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,23 +1630,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -971,8 +1665,15 @@
         <v>2</v>
       </c>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -981,8 +1682,15 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -999,8 +1707,23 @@
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1017,8 +1740,23 @@
       <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1035,8 +1773,23 @@
       <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1053,8 +1806,23 @@
       <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1069,8 +1837,23 @@
         <v>187</v>
       </c>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1868,23 @@
         <v>188</v>
       </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1099,8 +1897,17 @@
         <v>185</v>
       </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9" s="8"/>
+      <c r="J9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1113,16 +1920,44 @@
         <v>184</v>
       </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I10" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I11" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1135,8 +1970,23 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1149,8 +1999,23 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I13" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1163,8 +2028,23 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I14" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1177,8 +2057,23 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I15" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1193,8 +2088,23 @@
         <v>188</v>
       </c>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I16" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1209,16 +2119,40 @@
         <v>188</v>
       </c>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I17" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I18" s="8"/>
+      <c r="J18" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1235,8 +2169,13 @@
       <c r="F19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +2192,17 @@
       <c r="F20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I20" s="8"/>
+      <c r="J20" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1271,8 +2219,17 @@
       <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I21" s="8"/>
+      <c r="J21" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1289,8 +2246,17 @@
       <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I22" s="8"/>
+      <c r="J22" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1307,8 +2273,17 @@
       <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I23" s="8"/>
+      <c r="J23" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1325,8 +2300,17 @@
       <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I24" s="8"/>
+      <c r="J24" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1343,8 +2327,17 @@
       <c r="F25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I25" s="8"/>
+      <c r="J25" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1357,16 +2350,34 @@
         <v>158</v>
       </c>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I26" s="8"/>
+      <c r="J26" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I27" s="8"/>
+      <c r="J27" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -1383,8 +2394,13 @@
       <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -1401,8 +2417,23 @@
       <c r="F29" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I29" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -1419,8 +2450,23 @@
       <c r="F30" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I30" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -1435,8 +2481,23 @@
         <v>170</v>
       </c>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I31" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1451,8 +2512,23 @@
         <v>189</v>
       </c>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I32" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -1467,8 +2543,23 @@
         <v>171</v>
       </c>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I33" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -1483,8 +2574,23 @@
         <v>172</v>
       </c>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I34" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -1499,16 +2605,40 @@
         <v>173</v>
       </c>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I35" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I36" s="8"/>
+      <c r="J36" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
@@ -1517,8 +2647,23 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I37" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>63</v>
       </c>
@@ -1531,8 +2676,23 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I38" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -1543,8 +2703,23 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I39" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1553,8 +2728,23 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I40" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
@@ -1567,8 +2757,23 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I41" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
@@ -1579,8 +2784,23 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I42" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
@@ -1589,8 +2809,23 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I43" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
@@ -1599,8 +2834,23 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I44" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>70</v>
       </c>
@@ -1611,16 +2861,28 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>71</v>
       </c>
@@ -1629,8 +2891,23 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L47" t="s">
+        <v>89</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>72</v>
       </c>
@@ -1639,16 +2916,39 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I48" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L48" t="s">
+        <v>90</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I49" s="8"/>
+      <c r="J49" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -1663,8 +2963,23 @@
         <v>159</v>
       </c>
       <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I50" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -1679,8 +2994,23 @@
         <v>160</v>
       </c>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I51" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L51" t="s">
+        <v>90</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -1695,8 +3025,20 @@
         <v>161</v>
       </c>
       <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I52" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>76</v>
       </c>
@@ -1711,8 +3053,20 @@
         <v>162</v>
       </c>
       <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I53" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
@@ -1727,8 +3081,23 @@
         <v>163</v>
       </c>
       <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I54" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L54" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>78</v>
       </c>
@@ -1743,8 +3112,16 @@
         <v>164</v>
       </c>
       <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I55" s="8"/>
+      <c r="J55" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M55" s="10"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
@@ -1759,8 +3136,16 @@
         <v>165</v>
       </c>
       <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I56" s="8"/>
+      <c r="J56" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>80</v>
       </c>
@@ -1775,16 +3160,32 @@
         <v>166</v>
       </c>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I57" s="8"/>
+      <c r="J57" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I58" s="8"/>
+      <c r="J58" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>81</v>
       </c>
@@ -1799,8 +3200,16 @@
         <v>174</v>
       </c>
       <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I59" s="8"/>
+      <c r="J59" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M59" s="10"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>82</v>
       </c>
@@ -1815,8 +3224,16 @@
         <v>175</v>
       </c>
       <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I60" s="8"/>
+      <c r="J60" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M60" s="10"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
@@ -1831,8 +3248,16 @@
         <v>176</v>
       </c>
       <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I61" s="8"/>
+      <c r="J61" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>84</v>
       </c>
@@ -1847,8 +3272,16 @@
         <v>177</v>
       </c>
       <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I62" s="8"/>
+      <c r="J62" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>85</v>
       </c>
@@ -1863,8 +3296,16 @@
         <v>178</v>
       </c>
       <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I63" s="8"/>
+      <c r="J63" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M63" s="10"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>86</v>
       </c>
@@ -1879,8 +3320,12 @@
         <v>179</v>
       </c>
       <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I64" s="8"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="M64" s="10"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>87</v>
       </c>
@@ -1895,8 +3340,23 @@
         <v>180</v>
       </c>
       <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I65" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L65" t="s">
+        <v>92</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>88</v>
       </c>
@@ -1911,9 +3371,1528 @@
         <v>181</v>
       </c>
       <c r="F66" s="4"/>
+      <c r="I66" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L66" t="s">
+        <v>93</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I67" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L67" t="s">
+        <v>94</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I68" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L68" t="s">
+        <v>95</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I69" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L69" t="s">
+        <v>96</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I70" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L70" t="s">
+        <v>97</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I71" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L71" t="s">
+        <v>98</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I72" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L72" t="s">
+        <v>99</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I73" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L73" t="s">
+        <v>100</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I74" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L74" t="s">
+        <v>101</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I75" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L75" t="s">
+        <v>102</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I76" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L76" t="s">
+        <v>103</v>
+      </c>
+      <c r="M76" s="10"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I77" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L77" t="s">
+        <v>104</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I78" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L78" t="s">
+        <v>105</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I79" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I80" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L80" t="s">
+        <v>107</v>
+      </c>
+      <c r="M80" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/XING_ELE32801-Planos/Libro1.xlsx
+++ b/XING_ELE32801-Planos/Libro1.xlsx
@@ -1026,9 +1026,6 @@
     <t>RELEVAR</t>
   </si>
   <si>
-    <t>iReserva_1</t>
-  </si>
-  <si>
     <t>iReserva_2</t>
   </si>
   <si>
@@ -1111,6 +1108,9 @@
   </si>
   <si>
     <t>oReserva_13</t>
+  </si>
+  <si>
+    <t>iReserva</t>
   </si>
 </sst>
 </file>
@@ -1332,12 +1332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1347,6 +1341,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,7 +1633,7 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,13 +1665,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1682,7 +1682,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="9"/>
@@ -2100,7 +2100,7 @@
       <c r="L16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="23" t="s">
         <v>331</v>
       </c>
     </row>
@@ -2128,10 +2128,10 @@
       <c r="K17" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="21" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2861,10 +2861,10 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,7 +2874,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="17" t="s">
         <v>62</v>
       </c>
       <c r="J46" s="9"/>
@@ -3034,7 +3034,7 @@
       <c r="K52" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="M52" s="23" t="s">
+      <c r="M52" s="21" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="K53" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="M53" s="23" t="s">
+      <c r="M53" s="21" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3090,10 +3090,10 @@
       <c r="K54" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="L54" s="24" t="s">
+      <c r="L54" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="M54" s="23" t="s">
+      <c r="M54" s="21" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       <c r="L80" t="s">
         <v>107</v>
       </c>
-      <c r="M80" s="22"/>
+      <c r="M80" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3634,30 +3634,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9"/>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>208</v>
@@ -3777,14 +3777,16 @@
       <c r="C9" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>210</v>
@@ -3792,14 +3794,14 @@
       <c r="C10" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>212</v>
@@ -3807,14 +3809,14 @@
       <c r="C11" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>215</v>
@@ -3822,7 +3824,7 @@
       <c r="C12" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E12" s="10"/>
@@ -3891,13 +3893,13 @@
       <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>226</v>
@@ -3905,16 +3907,14 @@
       <c r="C17" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>326</v>
-      </c>
+      <c r="D17" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>227</v>
@@ -3922,7 +3922,7 @@
       <c r="C18" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E18" s="10"/>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>228</v>
@@ -3944,14 +3944,14 @@
       <c r="C20" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>229</v>
@@ -3959,14 +3959,14 @@
       <c r="C21" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>230</v>
@@ -3974,14 +3974,14 @@
       <c r="C22" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>231</v>
@@ -3989,14 +3989,14 @@
       <c r="C23" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>232</v>
@@ -4004,14 +4004,14 @@
       <c r="C24" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>233</v>
@@ -4019,14 +4019,14 @@
       <c r="C25" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>234</v>
@@ -4034,14 +4034,14 @@
       <c r="C26" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>235</v>
@@ -4049,7 +4049,7 @@
       <c r="C27" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E27" s="10"/>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>250</v>
@@ -4190,7 +4190,7 @@
       <c r="C36" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E36" s="10"/>
@@ -4332,14 +4332,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="9"/>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>275</v>
@@ -4374,14 +4374,14 @@
       <c r="C48" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>276</v>
@@ -4389,14 +4389,14 @@
       <c r="C49" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>278</v>
@@ -4404,14 +4404,14 @@
       <c r="C50" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>280</v>
@@ -4419,7 +4419,7 @@
       <c r="C51" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E51" s="10"/>
@@ -4434,10 +4434,10 @@
       <c r="C52" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="E52" s="23" t="s">
+      <c r="D52" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4451,10 +4451,10 @@
       <c r="C53" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="E53" s="23" t="s">
+      <c r="D53" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4468,16 +4468,16 @@
       <c r="C54" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="21" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>284</v>
@@ -4485,14 +4485,14 @@
       <c r="C55" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>285</v>
@@ -4500,14 +4500,14 @@
       <c r="C56" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>286</v>
@@ -4515,14 +4515,14 @@
       <c r="C57" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>287</v>
@@ -4530,14 +4530,14 @@
       <c r="C58" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>288</v>
@@ -4545,14 +4545,14 @@
       <c r="C59" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>289</v>
@@ -4560,14 +4560,14 @@
       <c r="C60" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>290</v>
@@ -4575,14 +4575,14 @@
       <c r="C61" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>290</v>
@@ -4590,14 +4590,14 @@
       <c r="C62" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>291</v>
@@ -4605,7 +4605,7 @@
       <c r="C63" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E63" s="10"/>
@@ -4816,7 +4816,7 @@
       <c r="D76" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="25" t="s">
+      <c r="E76" s="23" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="D80" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="24" t="s">
         <v>331</v>
       </c>
     </row>

--- a/XING_ELE32801-Planos/Libro1.xlsx
+++ b/XING_ELE32801-Planos/Libro1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FJR\Desktop\FJR\Obras - eProC\REPO_GITHUB\RepoX328\XING_ELE32801-Planos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RepoGaj\RepoX328\XING_ELE32801-Planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="361">
   <si>
     <t>PROGRAMA PLC</t>
   </si>
@@ -1107,17 +1107,17 @@
     <t>oReserva_12</t>
   </si>
   <si>
-    <t>oReserva_13</t>
-  </si>
-  <si>
     <t>iReserva</t>
+  </si>
+  <si>
+    <t>NO EXISTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,8 +1131,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1180,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1308,10 +1320,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1347,8 +1360,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1636,23 +1653,23 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="83.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="83.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1673,7 +1690,7 @@
       <c r="L1" s="26"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1707,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1773,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1806,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1839,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1853,7 +1870,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1884,7 +1901,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1924,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1934,7 +1951,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1957,7 +1974,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +2003,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2015,7 +2032,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -2044,7 +2061,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -2073,7 +2090,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +2121,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2135,7 +2152,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
@@ -2152,7 +2169,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2192,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2202,7 +2219,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2229,7 +2246,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -2256,7 +2273,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -2283,7 +2300,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -2310,7 +2327,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -2337,7 +2354,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2360,7 +2377,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2377,7 +2394,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2400,7 +2417,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -2433,7 +2450,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -2466,7 +2483,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -2497,7 +2514,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -2528,7 +2545,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -2559,7 +2576,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -2590,7 +2607,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -2621,7 +2638,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2638,7 +2655,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
@@ -2663,7 +2680,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>63</v>
       </c>
@@ -2692,7 +2709,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -2719,7 +2736,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -2744,7 +2761,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
@@ -2773,7 +2790,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
@@ -2800,7 +2817,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
@@ -2825,7 +2842,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
@@ -2850,7 +2867,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2867,7 +2884,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2882,7 +2899,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>71</v>
       </c>
@@ -2907,7 +2924,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>72</v>
       </c>
@@ -2932,7 +2949,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2948,7 +2965,7 @@
       </c>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -2979,7 +2996,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -3010,7 +3027,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -3038,7 +3055,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>76</v>
       </c>
@@ -3066,7 +3083,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
@@ -3097,7 +3114,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>78</v>
       </c>
@@ -3121,7 +3138,7 @@
       </c>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
@@ -3145,7 +3162,7 @@
       </c>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>80</v>
       </c>
@@ -3169,7 +3186,7 @@
       </c>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
@@ -3185,7 +3202,7 @@
       </c>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>81</v>
       </c>
@@ -3209,7 +3226,7 @@
       </c>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>82</v>
       </c>
@@ -3233,7 +3250,7 @@
       </c>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
@@ -3257,7 +3274,7 @@
       </c>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>84</v>
       </c>
@@ -3281,7 +3298,7 @@
       </c>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>85</v>
       </c>
@@ -3305,7 +3322,7 @@
       </c>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>86</v>
       </c>
@@ -3325,7 +3342,7 @@
       <c r="K64" s="9"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>87</v>
       </c>
@@ -3356,7 +3373,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>88</v>
       </c>
@@ -3387,7 +3404,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I67" s="8" t="s">
         <v>296</v>
       </c>
@@ -3404,7 +3421,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I68" s="8" t="s">
         <v>298</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I69" s="8" t="s">
         <v>300</v>
       </c>
@@ -3438,7 +3455,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I70" s="8" t="s">
         <v>302</v>
       </c>
@@ -3455,7 +3472,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I71" s="8" t="s">
         <v>304</v>
       </c>
@@ -3472,7 +3489,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I72" s="8" t="s">
         <v>306</v>
       </c>
@@ -3489,7 +3506,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I73" s="8" t="s">
         <v>308</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I74" s="8" t="s">
         <v>310</v>
       </c>
@@ -3523,7 +3540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I75" s="8" t="s">
         <v>312</v>
       </c>
@@ -3540,7 +3557,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I76" s="8" t="s">
         <v>314</v>
       </c>
@@ -3555,7 +3572,7 @@
       </c>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I77" s="8" t="s">
         <v>316</v>
       </c>
@@ -3572,7 +3589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I78" s="8" t="s">
         <v>318</v>
       </c>
@@ -3589,7 +3606,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I79" s="8" t="s">
         <v>320</v>
       </c>
@@ -3606,7 +3623,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I80" s="13" t="s">
         <v>322</v>
       </c>
@@ -3632,22 +3649,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>190</v>
       </c>
@@ -3656,7 +3673,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3665,7 +3682,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>191</v>
       </c>
@@ -3682,7 +3699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>195</v>
       </c>
@@ -3699,7 +3716,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>198</v>
       </c>
@@ -3716,7 +3733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>200</v>
       </c>
@@ -3733,7 +3750,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>203</v>
       </c>
@@ -3750,7 +3767,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>205</v>
       </c>
@@ -3767,7 +3784,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>327</v>
       </c>
@@ -3784,7 +3801,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>332</v>
       </c>
@@ -3799,7 +3816,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>333</v>
       </c>
@@ -3814,7 +3831,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>334</v>
       </c>
@@ -3829,7 +3846,7 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>217</v>
       </c>
@@ -3846,7 +3863,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>220</v>
       </c>
@@ -3863,7 +3880,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>222</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>224</v>
       </c>
@@ -3897,9 +3914,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>226</v>
@@ -3910,9 +3927,11 @@
       <c r="D17" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>335</v>
       </c>
@@ -3925,16 +3944,16 @@
       <c r="D18" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>336</v>
       </c>
@@ -3949,7 +3968,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>337</v>
       </c>
@@ -3964,7 +3983,7 @@
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>338</v>
       </c>
@@ -3979,7 +3998,7 @@
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>339</v>
       </c>
@@ -3994,7 +4013,7 @@
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>340</v>
       </c>
@@ -4009,7 +4028,7 @@
       </c>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>341</v>
       </c>
@@ -4024,7 +4043,7 @@
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>342</v>
       </c>
@@ -4039,7 +4058,7 @@
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>343</v>
       </c>
@@ -4054,14 +4073,14 @@
       </c>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>236</v>
       </c>
@@ -4078,7 +4097,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>238</v>
       </c>
@@ -4095,7 +4114,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>240</v>
       </c>
@@ -4112,7 +4131,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>242</v>
       </c>
@@ -4129,7 +4148,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>244</v>
       </c>
@@ -4146,7 +4165,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>246</v>
       </c>
@@ -4163,7 +4182,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>248</v>
       </c>
@@ -4180,7 +4199,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>344</v>
       </c>
@@ -4195,7 +4214,7 @@
       </c>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>251</v>
       </c>
@@ -4212,7 +4231,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>253</v>
       </c>
@@ -4229,7 +4248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>255</v>
       </c>
@@ -4246,7 +4265,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>257</v>
       </c>
@@ -4263,7 +4282,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>259</v>
       </c>
@@ -4280,7 +4299,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>261</v>
       </c>
@@ -4297,7 +4316,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>263</v>
       </c>
@@ -4314,7 +4333,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>265</v>
       </c>
@@ -4331,14 +4350,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>62</v>
       </c>
@@ -4347,7 +4366,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>272</v>
       </c>
@@ -4364,7 +4383,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>345</v>
       </c>
@@ -4379,7 +4398,7 @@
       </c>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>346</v>
       </c>
@@ -4394,7 +4413,7 @@
       </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>347</v>
       </c>
@@ -4409,7 +4428,7 @@
       </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>348</v>
       </c>
@@ -4424,7 +4443,7 @@
       </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>324</v>
       </c>
@@ -4441,7 +4460,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>325</v>
       </c>
@@ -4458,7 +4477,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>329</v>
       </c>
@@ -4475,7 +4494,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>349</v>
       </c>
@@ -4490,7 +4509,7 @@
       </c>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>350</v>
       </c>
@@ -4505,7 +4524,7 @@
       </c>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>353</v>
       </c>
@@ -4518,9 +4537,11 @@
       <c r="D57" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>354</v>
       </c>
@@ -4533,9 +4554,9 @@
       <c r="D58" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>355</v>
       </c>
@@ -4548,9 +4569,9 @@
       <c r="D59" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>356</v>
       </c>
@@ -4563,9 +4584,9 @@
       <c r="D60" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>357</v>
       </c>
@@ -4578,14 +4599,14 @@
       <c r="D61" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>358</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>193</v>
@@ -4593,304 +4614,291 @@
       <c r="D62" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>134</v>
-      </c>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="E64" s="10"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="24" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
